--- a/src/assets/testfiles/preparation.xlsx
+++ b/src/assets/testfiles/preparation.xlsx
@@ -25,9 +25,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>j5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,13 +55,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,29 +386,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -368,47 +416,47 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -416,10 +464,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -428,6 +476,23 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
@@ -438,29 +503,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -468,16 +533,16 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
@@ -485,27 +550,27 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -519,15 +584,32 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
@@ -538,43 +620,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -582,36 +664,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -622,12 +704,29 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
